--- a/resources/attachments/IDE/IntelliJ IDEA 快捷键.xlsx
+++ b/resources/attachments/IDE/IntelliJ IDEA 快捷键.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FBD285-B865-4BEA-A59B-DFA01A01CBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B80E98-844A-4EC6-AEBF-AC7A8EB35E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="445">
   <si>
     <t>快捷键</t>
   </si>
@@ -319,9 +318,6 @@
     <t>Ctrl + F9</t>
   </si>
   <si>
-    <t>Make project (compile modifed and dependent)</t>
-  </si>
-  <si>
     <t>Ctrl + Shift + F9</t>
   </si>
   <si>
@@ -362,18 +358,12 @@
     <t>Step over</t>
   </si>
   <si>
-    <t>跳到当前代码下一行。 （常用）</t>
-  </si>
-  <si>
     <t>F7</t>
   </si>
   <si>
     <t>Step into</t>
   </si>
   <si>
-    <t>跳入到调用的方法内部代码。 （常用）</t>
-  </si>
-  <si>
     <t>Shift + F7</t>
   </si>
   <si>
@@ -383,21 +373,12 @@
     <t>Shift + F8</t>
   </si>
   <si>
-    <t>Step out</t>
-  </si>
-  <si>
-    <t>跳出当前的类，到上一级。 （常用）</t>
-  </si>
-  <si>
     <t>Alt + F9</t>
   </si>
   <si>
     <t>Run to cursor</t>
   </si>
   <si>
-    <t>让代码运行到当前光标所在处，非常棒的功能。 （常用）</t>
-  </si>
-  <si>
     <t>Alt + F8</t>
   </si>
   <si>
@@ -413,9 +394,6 @@
     <t>Resume program</t>
   </si>
   <si>
-    <t>结束当前断点的本轮调试（因为有可能代码会被调用多次，所以调用后只会结束当前的这一次）；如果有下一个断点会跳到下一个断点中。（常用）</t>
-  </si>
-  <si>
     <t>Ctrl + F8</t>
   </si>
   <si>
@@ -431,9 +409,6 @@
     <t>View breakpoints</t>
   </si>
   <si>
-    <t>打开当前断点的面板，可以进行条件过滤哦。</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 导航【Navigation】</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -474,9 +449,6 @@
     <t>Hide active or last active window</t>
   </si>
   <si>
-    <t>Close active run/messages/find/… tab</t>
-  </si>
-  <si>
     <t>Ctrl + G</t>
   </si>
   <si>
@@ -489,9 +461,6 @@
     <t>Recent files popup</t>
   </si>
   <si>
-    <t>Ctrl + Alt + 右箭头/左箭头</t>
-  </si>
-  <si>
     <t>Navigate back/forward</t>
   </si>
   <si>
@@ -507,9 +476,6 @@
     <t>Select current file or symbol in any view</t>
   </si>
   <si>
-    <t>Ctrl + B 或 Ctrl + 鼠标左键</t>
-  </si>
-  <si>
     <t>Go to declaration</t>
   </si>
   <si>
@@ -534,9 +500,6 @@
     <t>Go to super-method/super-class</t>
   </si>
   <si>
-    <t>Alt + 上/下箭头</t>
-  </si>
-  <si>
     <t>Go to previous/next method</t>
   </si>
   <si>
@@ -570,12 +533,6 @@
     <t>Call hierarchy</t>
   </si>
   <si>
-    <t>F2/Shift + F2</t>
-  </si>
-  <si>
-    <t>Next/previous highlighted error</t>
-  </si>
-  <si>
     <t>F4</t>
   </si>
   <si>
@@ -633,10 +590,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Ctrl+Shift+F4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Editor Actions --&gt; Duplicate Entire Lines</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -848,18 +801,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Ctrl + X 或 Shift Delete</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ctrl + Delete/Backspace</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Delete to word end/start</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>打开使用情况列表的弹窗（常用）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -868,10 +809,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Alt + 右箭头/左箭头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>在曾经浏览过的代码行后退/前进</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -880,10 +817,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>同时关闭处于活动状态的某些工具栏窗口</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>隐藏最后一个处于活跃状态的工具窗口</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1108,10 +1041,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>会打开一个已经配置的运行列表，让你选择一个后，再运行</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>编译所中的范围（如果在某个类中，那么只会编译当前类）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1276,10 +1205,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>同步所有变化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>切换最大化编辑器</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1428,19 +1353,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>删除从当前光标所在位置开始，直到这个单词结尾/开始的内容</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>展开所有代码段</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>收缩所有代码段</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在当前项目中的使用情况，会打开一个使用情况面板</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1541,22 +1458,6 @@
   </si>
   <si>
     <r>
-      <t>关闭所有激活的工具窗口</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（已修改移除）</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>选中当前光标所在的代码块，多次触发，代码块会逐级变大（常用）</t>
     </r>
     <r>
@@ -1571,12 +1472,224 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>Select next occurrence</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select all occurrences</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unselect occurrence</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alt + J</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + Alt + Shift + J</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alt + Shift + J</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择所有事件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消选择事件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择下一次出现匹配的元素</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.3.x</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入版本</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Highlight usages in file</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Push commits</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + Shift + K</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送提交</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build project (compile modifed and dependent)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Run anything</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double Ctrl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行任何命令</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refactor this</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + Alt + Shift + T</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构当前所选。打开重构项列表的弹窗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>会打开一个已经配置的运行列表，选择某个运行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>会打开一个已经配置的运行列表，选择某个调试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳到当前代码下一行（常用）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳入到调用的方法内部代码（常用）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳出当前的类，到上一级（常用）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>让代码运行到当前光标所在处，非常棒的功能（常用）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束当前断点的本轮调试（因为有可能代码会被调用多次，所以调用后只会结束当前的这一次）；如果有下一个断点会跳到下一个断点中（常用）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smart Step out</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开当前断点的面板，可以进行条件过滤。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步所有变化（刷新）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + X 或 Shift + Delete</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + Delete</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + Backspace</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete to word end</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete to word start</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除从当前光标所在位置开始，直到这个单词结尾的内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除从当前光标所在位置开始，直到这个单词开始的内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alt + Right(右箭头) / Left(左箭头)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close active run/messages/find/… tab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>同时关闭处于活动状态的某些工具栏窗口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（已修改移除）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + Alt + Left(左箭头) / Right(右箭头)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + B 或 Ctrl + Click(鼠标左键)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alt + Up(上箭头) / Down(下箭头)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2 / Shift + F2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nex t/ previous highlighted error</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在当前项目中的使用情况，会打开一个使用情况面板</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1634,6 +1747,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1682,7 +1804,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1696,21 +1818,26 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1829,9 +1956,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1869,9 +1996,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1904,26 +2031,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1956,26 +2066,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2149,10 +2242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C166"/>
+  <dimension ref="A1:D172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="F130" sqref="F130"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="E165" sqref="E165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2160,16 +2253,17 @@
     <col min="1" max="1" width="25.125" customWidth="1"/>
     <col min="2" max="2" width="47.875" customWidth="1"/>
     <col min="3" max="3" width="69.625" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2" spans="1:3" ht="15">
+    <row r="1" spans="1:4">
+      <c r="A1" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2179,1694 +2273,1807 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="33">
+      <c r="D2" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5">
       <c r="A3" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="16.5">
+      <c r="A4" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="16.5">
+      <c r="A5" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="16.5">
+      <c r="A6" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="16.5">
+      <c r="A7" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5">
+      <c r="A8" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="16.5">
+      <c r="A9" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" ht="16.5">
+      <c r="A10" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" ht="16.5">
+      <c r="A11" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" ht="16.5">
+      <c r="A12" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" ht="16.5">
+      <c r="A13" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" ht="16.5">
+      <c r="A14" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" ht="16.5">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" spans="1:3" ht="15">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="33">
+      <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="33">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.5">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5">
-      <c r="A8" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16.5">
-      <c r="A9" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16.5">
-      <c r="A10" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="33">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16.5">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16.5">
-      <c r="A13" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="33">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="66">
-      <c r="A15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="33">
-      <c r="A16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="33">
-      <c r="A17" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.5">
-      <c r="A18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>393</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="33">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>395</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.5">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>388</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.5">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>387</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16.5">
       <c r="A23" s="2" t="s">
-        <v>41</v>
+        <v>230</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>42</v>
+        <v>231</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>396</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16.5">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>233</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>44</v>
+        <v>234</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>386</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16.5">
       <c r="A25" s="2" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>45</v>
+        <v>237</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16.5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="33">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>390</v>
+        <v>348</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.5">
       <c r="A27" s="2" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>385</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16.5">
       <c r="A28" s="2" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="16.5">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="33">
       <c r="A29" s="2" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16.5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="66">
       <c r="A30" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="16.5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="33">
       <c r="A31" s="2" t="s">
-        <v>194</v>
+        <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="16.5">
-      <c r="A32" s="2" t="s">
-        <v>57</v>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="33">
+      <c r="A32" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="33">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16.5">
       <c r="A33" s="2" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="16.5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="33">
       <c r="A34" s="2" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="16.5">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>398</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="16.5">
       <c r="A36" s="2" t="s">
-        <v>255</v>
+        <v>37</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>256</v>
+        <v>38</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>399</v>
+        <v>366</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="16.5">
       <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16.5">
       <c r="A38" s="2" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="16.5">
       <c r="A39" s="2" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>401</v>
+        <v>364</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="16.5">
       <c r="A40" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B40" s="3"/>
+        <v>429</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="C40" s="3" t="s">
-        <v>239</v>
+        <v>367</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="16.5">
-      <c r="A41" s="10" t="s">
-        <v>195</v>
+      <c r="A41" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>191</v>
+        <v>47</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>415</v>
+        <v>368</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="16.5">
-      <c r="A42" s="4" t="s">
-        <v>193</v>
+      <c r="A42" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>192</v>
+        <v>49</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>416</v>
+        <v>363</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="16.5">
-      <c r="A43" s="4" t="s">
-        <v>199</v>
+      <c r="A43" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>198</v>
+        <v>51</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>417</v>
+        <v>362</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="16.5">
-      <c r="A44" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="B44" s="3"/>
+      <c r="A44" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="C44" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="9" customFormat="1" ht="16.5">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16.5">
       <c r="A45" s="2" t="s">
-        <v>242</v>
+        <v>54</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>413</v>
+        <v>55</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-    </row>
-    <row r="48" spans="1:3" ht="15">
-      <c r="A48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>2</v>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16.5">
+      <c r="A46" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16.5">
+      <c r="A47" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="33">
+      <c r="A48" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="16.5">
       <c r="A49" s="2" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>402</v>
+        <v>369</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="16.5">
       <c r="A50" s="2" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>403</v>
+        <v>376</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="16.5">
       <c r="A51" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B51" s="3"/>
+        <v>430</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>432</v>
+      </c>
       <c r="C51" s="3" t="s">
-        <v>404</v>
+        <v>434</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="16.5">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>431</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>92</v>
+        <v>433</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-    </row>
-    <row r="55" spans="1:3" ht="15">
-      <c r="A55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>2</v>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16.5">
+      <c r="A53" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="16.5">
+      <c r="A54" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="16.5">
+      <c r="A55" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="16.5">
-      <c r="A56" s="2" t="s">
-        <v>134</v>
+      <c r="A56" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>204</v>
+        <v>391</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="16.5">
-      <c r="A57" s="2" t="s">
-        <v>136</v>
+      <c r="A57" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>203</v>
+        <v>392</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="16.5">
-      <c r="A58" s="2" t="s">
-        <v>138</v>
+      <c r="A58" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>258</v>
+        <v>183</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>265</v>
+        <v>393</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="16.5">
-      <c r="A59" s="2" t="s">
-        <v>259</v>
+      <c r="A59" s="7" t="s">
+        <v>195</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>139</v>
+        <v>437</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>264</v>
+        <v>438</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="16.5">
       <c r="A60" s="2" t="s">
-        <v>140</v>
+        <v>227</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>141</v>
+        <v>389</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="16.5">
       <c r="A61" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>143</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="B61" s="3"/>
       <c r="C61" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="16.5">
-      <c r="A62" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="16.5">
-      <c r="A63" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="16.5">
-      <c r="A64" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>266</v>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+    </row>
+    <row r="64" spans="1:3" ht="15">
+      <c r="A64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="16.5">
       <c r="A65" s="2" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>150</v>
+        <v>87</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>261</v>
+        <v>444</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="16.5">
       <c r="A66" s="2" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>260</v>
+        <v>379</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="16.5">
       <c r="A67" s="2" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>154</v>
+        <v>406</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>267</v>
+        <v>380</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="16.5">
       <c r="A68" s="2" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="33">
-      <c r="A69" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="16.5">
-      <c r="A70" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="16.5">
-      <c r="A71" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>268</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+    </row>
+    <row r="71" spans="1:3" ht="15">
+      <c r="A71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="16.5">
       <c r="A72" s="2" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>269</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="16.5">
       <c r="A73" s="2" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>270</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="16.5">
       <c r="A74" s="2" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="16.5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="33">
       <c r="A75" s="2" t="s">
-        <v>168</v>
+        <v>436</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="16.5">
       <c r="A76" s="2" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>205</v>
+        <v>381</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="16.5">
       <c r="A77" s="2" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>206</v>
+        <v>382</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="16.5">
       <c r="A78" s="2" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="16.5">
       <c r="A79" s="2" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>207</v>
+        <v>246</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="16.5">
       <c r="A80" s="2" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="16.5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="33">
       <c r="A81" s="2" t="s">
-        <v>180</v>
+        <v>439</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>409</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="16.5">
       <c r="A82" s="2" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>410</v>
+        <v>247</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="16.5">
       <c r="A83" s="2" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="16.5">
+    </row>
+    <row r="84" spans="1:3" ht="33">
       <c r="A84" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="16.5">
       <c r="A85" s="2" t="s">
-        <v>274</v>
+        <v>148</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>411</v>
+        <v>187</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="16.5">
       <c r="A86" s="2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-    </row>
-    <row r="89" spans="1:3" ht="15">
-      <c r="A89" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>2</v>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="16.5">
+      <c r="A87" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="16.5">
+      <c r="A88" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="33">
+      <c r="A89" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="16.5">
       <c r="A90" s="2" t="s">
-        <v>240</v>
+        <v>156</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>241</v>
+        <v>157</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="16.5">
       <c r="A91" s="2" t="s">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>412</v>
+        <v>190</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="16.5">
       <c r="A92" s="2" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>276</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="16.5">
       <c r="A93" s="2" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="16.5">
       <c r="A94" s="2" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>278</v>
+        <v>192</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="16.5">
       <c r="A95" s="2" t="s">
-        <v>81</v>
+        <v>442</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>82</v>
+        <v>443</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>279</v>
+        <v>384</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="16.5">
       <c r="A96" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="16.5">
+      <c r="A97" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="16.5">
+      <c r="A98" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="16.5">
+      <c r="A99" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="16.5">
+      <c r="A100" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="16.5">
+      <c r="A101" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+    </row>
+    <row r="104" spans="1:4" ht="15">
+      <c r="A104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="16.5">
+      <c r="A105" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D105" s="3"/>
+    </row>
+    <row r="106" spans="1:4" ht="16.5">
+      <c r="A106" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D106" s="3"/>
+    </row>
+    <row r="107" spans="1:4" ht="16.5">
+      <c r="A107" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D107" s="3"/>
+    </row>
+    <row r="108" spans="1:4" ht="16.5">
+      <c r="A108" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D108" s="3"/>
+    </row>
+    <row r="109" spans="1:4" ht="16.5">
+      <c r="A109" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D109" s="3"/>
+    </row>
+    <row r="110" spans="1:4" ht="16.5">
+      <c r="A110" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D110" s="3"/>
+    </row>
+    <row r="111" spans="1:4" ht="16.5">
+      <c r="A111" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B111" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C111" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D111" s="3"/>
+    </row>
+    <row r="112" spans="1:4" ht="16.5">
+      <c r="A112" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="16.5">
+      <c r="A113" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="16.5">
+      <c r="A114" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="16.5">
+      <c r="A115" s="5"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B116" s="10"/>
+      <c r="C116" s="10"/>
+    </row>
+    <row r="117" spans="1:4" ht="15">
+      <c r="A117" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="16.5">
+      <c r="A118" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="16.5">
+      <c r="A119" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="16.5">
+      <c r="A120" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="16.5">
+      <c r="A121" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="16.5">
+      <c r="A122" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="16.5">
+      <c r="A123" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="16.5">
+      <c r="A124" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B124" s="3" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" ht="16.5">
-      <c r="A97" s="5"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="7" t="s">
+      <c r="C124" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="16.5">
+      <c r="A125" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B125" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-    </row>
-    <row r="99" spans="1:3" ht="15">
-      <c r="A99" s="1" t="s">
+      <c r="C125" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="16.5">
+      <c r="A126" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B128" s="11"/>
+      <c r="C128" s="11"/>
+    </row>
+    <row r="129" spans="1:3" ht="15">
+      <c r="A129" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B129" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C129" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="16.5">
-      <c r="A100" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="16.5">
-      <c r="A101" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="16.5">
-      <c r="A102" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="16.5">
-      <c r="A103" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="16.5">
-      <c r="A104" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="16.5">
-      <c r="A105" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="16.5">
-      <c r="A106" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="16.5">
-      <c r="A107" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="16.5">
-      <c r="A108" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
-    </row>
-    <row r="111" spans="1:3" ht="15">
-      <c r="A111" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="16.5">
-      <c r="A112" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="16.5">
-      <c r="A113" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="16.5">
-      <c r="A114" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="16.5">
-      <c r="A115" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="16.5">
-      <c r="A116" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="16.5">
-      <c r="A117" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="16.5">
-      <c r="A118" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="16.5">
-      <c r="A119" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="16.5">
-      <c r="A120" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="16.5">
-      <c r="A121" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="16.5">
-      <c r="A122" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B124" s="7"/>
-      <c r="C124" s="7"/>
-    </row>
-    <row r="125" spans="1:3" ht="15">
-      <c r="A125" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="16.5">
-      <c r="A126" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="16.5">
-      <c r="A127" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="33">
-      <c r="A128" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="16.5">
-      <c r="A129" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="16.5">
       <c r="A130" s="2" t="s">
-        <v>118</v>
+        <v>201</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>119</v>
+        <v>283</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>120</v>
+        <v>202</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="16.5">
       <c r="A131" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>122</v>
+        <v>284</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="33">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="16.5">
       <c r="A132" s="2" t="s">
-        <v>124</v>
+        <v>214</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>125</v>
+        <v>285</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>126</v>
+        <v>205</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="16.5">
       <c r="A133" s="2" t="s">
-        <v>127</v>
+        <v>215</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>128</v>
+        <v>286</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>129</v>
+        <v>206</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="16.5">
       <c r="A134" s="2" t="s">
-        <v>130</v>
+        <v>415</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>131</v>
+        <v>414</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B136" s="7"/>
-      <c r="C136" s="7"/>
-    </row>
-    <row r="137" spans="1:3" ht="15">
-      <c r="A137" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>2</v>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="16.5">
+      <c r="A135" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="16.5">
+      <c r="A136" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="16.5">
+      <c r="A137" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="16.5">
       <c r="A138" s="2" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>95</v>
+        <v>290</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>321</v>
+        <v>210</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="16.5">
       <c r="A139" s="2" t="s">
-        <v>96</v>
+        <v>220</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>97</v>
+        <v>291</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>320</v>
+        <v>211</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="16.5">
       <c r="A140" s="2" t="s">
-        <v>98</v>
+        <v>221</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>99</v>
+        <v>292</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>319</v>
+        <v>212</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="16.5">
       <c r="A141" s="2" t="s">
-        <v>100</v>
+        <v>222</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C141" s="3"/>
-    </row>
-    <row r="142" spans="1:3" ht="16.5">
-      <c r="A142" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="16.5">
-      <c r="A143" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B143" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C143" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="16.5">
-      <c r="A144" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="B146" s="7"/>
-      <c r="C146" s="7"/>
-    </row>
-    <row r="147" spans="1:3" ht="15">
-      <c r="A147" s="1" t="s">
+      <c r="B143" s="10"/>
+      <c r="C143" s="10"/>
+    </row>
+    <row r="144" spans="1:3" ht="15">
+      <c r="A144" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B144" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C144" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="16.5">
+      <c r="A145" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="16.5">
+      <c r="A146" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="33">
+      <c r="A147" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="16.5">
       <c r="A148" s="2" t="s">
-        <v>322</v>
+        <v>112</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>326</v>
+        <v>424</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>331</v>
+        <v>421</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="16.5">
       <c r="A149" s="2" t="s">
-        <v>323</v>
+        <v>113</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>328</v>
+        <v>114</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>332</v>
+        <v>422</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="16.5">
       <c r="A150" s="2" t="s">
-        <v>324</v>
+        <v>115</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>329</v>
+        <v>116</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="16.5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="33">
       <c r="A151" s="2" t="s">
-        <v>325</v>
+        <v>118</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>330</v>
+        <v>119</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="B153" s="7"/>
-      <c r="C153" s="7"/>
-    </row>
-    <row r="154" spans="1:3" ht="15">
-      <c r="A154" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="16.5">
+      <c r="A152" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="16.5">
+      <c r="A153" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B155" s="10"/>
+      <c r="C155" s="10"/>
+    </row>
+    <row r="156" spans="1:3" ht="15">
+      <c r="A156" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B156" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="C156" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="16.5">
-      <c r="A155" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="16.5">
-      <c r="A156" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="16.5">
       <c r="A157" s="2" t="s">
-        <v>339</v>
+        <v>94</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>340</v>
+        <v>410</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>361</v>
+        <v>300</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="16.5">
       <c r="A158" s="2" t="s">
-        <v>341</v>
+        <v>95</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>342</v>
+        <v>96</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>362</v>
+        <v>299</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="16.5">
       <c r="A159" s="2" t="s">
-        <v>343</v>
+        <v>97</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>345</v>
+        <v>98</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="16.5">
       <c r="A160" s="2" t="s">
-        <v>344</v>
+        <v>99</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>346</v>
+        <v>100</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>368</v>
+        <v>418</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="16.5">
       <c r="A161" s="2" t="s">
-        <v>347</v>
+        <v>101</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>348</v>
+        <v>102</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>369</v>
+        <v>298</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="16.5">
       <c r="A162" s="2" t="s">
-        <v>349</v>
+        <v>103</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>350</v>
+        <v>104</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>364</v>
+        <v>297</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="16.5">
       <c r="A163" s="2" t="s">
-        <v>351</v>
+        <v>229</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>352</v>
+        <v>295</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>365</v>
+        <v>296</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="16.5">
       <c r="A164" s="2" t="s">
-        <v>353</v>
+        <v>412</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>354</v>
+        <v>411</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="16.5">
-      <c r="A165" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="16.5">
-      <c r="A166" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>357</v>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="B166" s="10"/>
+      <c r="C166" s="10"/>
+    </row>
+    <row r="167" spans="1:3" ht="15">
+      <c r="A167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="16.5">
+      <c r="A168" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="16.5">
+      <c r="A169" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="16.5">
+      <c r="A170" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="16.5">
+      <c r="A171" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="16.5">
+      <c r="A172" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A166:C166"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="A116:C116"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A90">
+  <conditionalFormatting sqref="A105">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A98:A1048576 A46:A89 A91:A95 A1:A44">
+  <conditionalFormatting sqref="A106:A110 A116:A1048576 A1:A59 A61:A104">
     <cfRule type="duplicateValues" dxfId="1" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A96:A97 A45">
+  <conditionalFormatting sqref="A111:A115 A60">
     <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/attachments/IDE/IntelliJ IDEA 快捷键.xlsx
+++ b/resources/attachments/IDE/IntelliJ IDEA 快捷键.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B80E98-844A-4EC6-AEBF-AC7A8EB35E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D26461A-FCE7-493D-B973-17BE456B8B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1963,7 +1963,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2244,8 +2244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="E165" sqref="E165"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
